--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -34,8 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="60" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="61" formatCode="yyyy-mm"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -66,10 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="60" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="61" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,8 +437,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>2026-01-29</v>
+      <c r="A2" s="1">
+        <v>46051.000497685185</v>
       </c>
       <c r="B2" t="str">
         <v>草莓蛋糕</v>
@@ -445,26 +449,26 @@
       <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <f>C2*D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A2,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <f>E2-F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <f>G2/E2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2026-01-29</v>
+      <c r="A3" s="1">
+        <v>46051.000497685185</v>
       </c>
       <c r="B3" t="str">
         <v>蓝莓蛋糕</v>
@@ -475,33 +479,63 @@
       <c r="D3">
         <v>40</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A3,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f>E3-F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <f>G3/E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>46049.000497685185</v>
+      </c>
+      <c r="B4" t="str">
+        <v>芭乐蛋糕</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A4,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f>G4/E4</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,8 +561,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>2026-01-29</v>
+      <c r="A2" s="1">
+        <v>46051.000497685185</v>
       </c>
       <c r="B2" t="str">
         <v>鸡蛋</v>
@@ -542,14 +576,14 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>C2*E2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2026-01-29</v>
+      <c r="A3" s="1">
+        <v>46051.000497685185</v>
       </c>
       <c r="B3" t="str">
         <v>奶油</v>
@@ -563,14 +597,14 @@
       <c r="E3">
         <v>600</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <f>C3*E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>2026-01-29</v>
+      <c r="A4" s="1">
+        <v>46051.000497685185</v>
       </c>
       <c r="B4" t="str">
         <v>蛋糕盒</v>
@@ -584,14 +618,56 @@
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f>C4*E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>46048.000497685185</v>
+      </c>
+      <c r="B5" t="str">
+        <v>蛋糕盒</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <v>箱</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <f>C5*E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>46049.000497685185</v>
+      </c>
+      <c r="B6" t="str">
+        <v>叉子</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>箱</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <f>C6*E6</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -645,22 +721,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>2026-01</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="4">
+        <v>46023.000497685185</v>
+      </c>
+      <c r="B2" s="2">
         <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$4,"YYYY-MM")=A2)*采购明细!$F$2:$F$4)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <f>B2-C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f>D2/B2</f>
         <v>0</v>
       </c>
@@ -679,15 +755,15 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <f>F2+G2+H2+I2+J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <f>D2-K2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <f>L2/B2</f>
         <v>0</v>
       </c>

--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -34,10 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="60" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="61" formatCode="yyyy-mm"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -68,12 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="60" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="61" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +436,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>46051.000497685185</v>
+        <v>46051</v>
       </c>
       <c r="B2" t="str">
         <v>草莓蛋糕</v>
@@ -468,7 +466,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>46051.000497685185</v>
+        <v>46051</v>
       </c>
       <c r="B3" t="str">
         <v>蓝莓蛋糕</v>
@@ -498,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>46049.000497685185</v>
+        <v>46048</v>
       </c>
       <c r="B4" t="str">
         <v>芭乐蛋糕</v>
@@ -562,7 +560,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>46051.000497685185</v>
+        <v>46051</v>
       </c>
       <c r="B2" t="str">
         <v>鸡蛋</v>
@@ -583,7 +581,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>46051.000497685185</v>
+        <v>46051</v>
       </c>
       <c r="B3" t="str">
         <v>奶油</v>
@@ -604,7 +602,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>46051.000497685185</v>
+        <v>46051</v>
       </c>
       <c r="B4" t="str">
         <v>蛋糕盒</v>
@@ -625,7 +623,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>46048.000497685185</v>
+        <v>46047</v>
       </c>
       <c r="B5" t="str">
         <v>蛋糕盒</v>
@@ -646,7 +644,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>46049.000497685185</v>
+        <v>46048</v>
       </c>
       <c r="B6" t="str">
         <v>叉子</v>
@@ -721,8 +719,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
-        <v>46023.000497685185</v>
+      <c r="A2" t="str">
+        <v>2026-01</v>
       </c>
       <c r="B2" s="2">
         <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>

--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -677,11 +677,11 @@
         <v>2026-01</v>
       </c>
       <c r="B2" s="2">
-        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$4,"YYYY-MM")=A2)*销售明细!$E$2:$E$4)</f>
+        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$10000,"YYYY-MM")=A2)*销售明细!$E$2:$E$10000)</f>
         <v>1260</v>
       </c>
       <c r="C2" s="2">
-        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$6,"YYYY-MM")=A2)*采购明细!$F$2:$F$6)</f>
+        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$10000,"YYYY-MM")=A2)*采购明细!$F$2:$F$10000)</f>
         <v>1350</v>
       </c>
       <c r="D2" s="2">
